--- a/docs/sync_fifo_verification_test_plan.xlsx
+++ b/docs/sync_fifo_verification_test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\04_Projects\01_GitHub\01_fifo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC06568-9184-485C-9D50-C25D5F0B9143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59D8D2-C097-4049-8E1A-0BFB137B3822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{954AE6CF-E67F-46CD-92E2-8C984CD8E5BE}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>RW_COMBINATION</t>
   </si>
   <si>
-    <t>Simultaneous read and write</t>
-  </si>
-  <si>
     <t>Verify overflow behavior</t>
   </si>
   <si>
@@ -158,12 +155,6 @@
     <t>almost_empty=1; empty=0</t>
   </si>
   <si>
-    <t>wr_en=1, rd_en=1; FIFO not full and not empty</t>
-  </si>
-  <si>
-    <t>usedw unchanged; wr_ptr++, rd_ptr++; dout valid</t>
-  </si>
-  <si>
     <t>Fill FIFO to full; wr_en=1, rd_en=0</t>
   </si>
   <si>
@@ -234,6 +225,15 @@
   </si>
   <si>
     <t>wrap_around_test</t>
+  </si>
+  <si>
+    <t>Simultaneous read and write in same cycle</t>
+  </si>
+  <si>
+    <t>make fifo not full and not empty.                   Assert wr_en = 1 and rd_en = 1 in the same clock cycle</t>
+  </si>
+  <si>
+    <t>usedw unchanged; dout outputs valid FIFO data</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,6 +337,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -682,14 +688,14 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.69921875" bestFit="1" customWidth="1"/>
@@ -698,7 +704,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -710,11 +716,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -728,7 +734,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -738,11 +744,11 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -774,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
@@ -797,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -820,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -843,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -866,13 +872,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -889,13 +895,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -912,13 +918,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -935,13 +941,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -958,38 +964,38 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -998,19 +1004,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1024,16 +1030,16 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
